--- a/todaysBank.xlsx
+++ b/todaysBank.xlsx
@@ -34,10 +34,10 @@
     <t>Aegis of Stormwind</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=1203) </t>
-  </si>
-  <si>
-    <t>peanuts</t>
+    <t>https://database.turtle-wow.org/?item=1203</t>
+  </si>
+  <si>
+    <t>Peanuts</t>
   </si>
   <si>
     <t>20</t>
@@ -46,7 +46,7 @@
     <t>Aquamarine</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7909) </t>
+    <t>https://database.turtle-wow.org/?item=7909</t>
   </si>
   <si>
     <t>40</t>
@@ -55,31 +55,31 @@
     <t>Arcane Crystal</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12363) </t>
+    <t>https://database.turtle-wow.org/?item=12363</t>
   </si>
   <si>
     <t>Arcanite Bar</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12360) </t>
+    <t>https://database.turtle-wow.org/?item=12360</t>
   </si>
   <si>
     <t>Azerothian Diamond</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12800) </t>
+    <t>https://database.turtle-wow.org/?item=12800</t>
   </si>
   <si>
     <t>Belt of Valor</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=16736) </t>
+    <t>https://database.turtle-wow.org/?item=16736</t>
   </si>
   <si>
     <t>Black Diamond</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=11754) </t>
+    <t>https://database.turtle-wow.org/?item=11754</t>
   </si>
   <si>
     <t>8</t>
@@ -88,13 +88,13 @@
     <t>Black Lotus</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13468) </t>
+    <t>https://database.turtle-wow.org/?item=13468</t>
   </si>
   <si>
     <t>Black Pearl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7971) </t>
+    <t>https://database.turtle-wow.org/?item=7971</t>
   </si>
   <si>
     <t>4</t>
@@ -103,13 +103,13 @@
     <t>Blood of the Mountain</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=11382) </t>
+    <t>https://database.turtle-wow.org/?item=11382</t>
   </si>
   <si>
     <t>Blue Sapphire</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12361) </t>
+    <t>https://database.turtle-wow.org/?item=12361</t>
   </si>
   <si>
     <t>2</t>
@@ -118,13 +118,13 @@
     <t>Book: Gift of the Wild</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=17682) </t>
+    <t>https://database.turtle-wow.org/?item=17682</t>
   </si>
   <si>
     <t>Book: Gift of the Wild II</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=17683) </t>
+    <t>https://database.turtle-wow.org/?item=17683</t>
   </si>
   <si>
     <t>9</t>
@@ -133,31 +133,31 @@
     <t>Breath of Wind</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7081) </t>
+    <t>https://database.turtle-wow.org/?item=7081</t>
   </si>
   <si>
     <t>Brilliant Chromatic Scale</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12607) </t>
+    <t>https://database.turtle-wow.org/?item=12607</t>
   </si>
   <si>
     <t>Burning War Axe</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=2299) </t>
+    <t>https://database.turtle-wow.org/?item=2299</t>
   </si>
   <si>
     <t>Cassandra's Grace</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13102) </t>
+    <t>https://database.turtle-wow.org/?item=13102</t>
   </si>
   <si>
     <t>Codex: Prayer of Fortitude II</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=17414) </t>
+    <t>https://database.turtle-wow.org/?item=17414</t>
   </si>
   <si>
     <t>3</t>
@@ -166,19 +166,19 @@
     <t>Codex: Prayer of Shadow Protection</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=22393) </t>
+    <t>https://database.turtle-wow.org/?item=22393</t>
   </si>
   <si>
     <t>Core of Earth</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7075) </t>
+    <t>https://database.turtle-wow.org/?item=7075</t>
   </si>
   <si>
     <t>Cow King's Hide</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13009) </t>
+    <t>https://database.turtle-wow.org/?item=13009</t>
   </si>
   <si>
     <t>11</t>
@@ -187,7 +187,7 @@
     <t>Dark Iron Bar</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=11371) </t>
+    <t>https://database.turtle-wow.org/?item=11371</t>
   </si>
   <si>
     <t>481</t>
@@ -196,7 +196,7 @@
     <t>Dark Iron Residue</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=18945) </t>
+    <t>https://database.turtle-wow.org/?item=18945</t>
   </si>
   <si>
     <t>15</t>
@@ -205,91 +205,91 @@
     <t>Dense Sharpening Stone</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12404) </t>
+    <t>https://database.turtle-wow.org/?item=12404</t>
   </si>
   <si>
     <t>Destiny</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=647) </t>
+    <t>https://database.turtle-wow.org/?item=647</t>
   </si>
   <si>
     <t>Devout Belt</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=16696) </t>
+    <t>https://database.turtle-wow.org/?item=16696</t>
   </si>
   <si>
     <t>Devout Gloves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=16692) </t>
+    <t>https://database.turtle-wow.org/?item=16692</t>
   </si>
   <si>
     <t>Discombobulator Ray</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=4388) </t>
+    <t>https://database.turtle-wow.org/?item=4388</t>
   </si>
   <si>
     <t>Dreadmist Belt</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=16702) </t>
+    <t>https://database.turtle-wow.org/?item=16702</t>
   </si>
   <si>
     <t>Dreamfoil</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13463) </t>
+    <t>https://database.turtle-wow.org/?item=13463</t>
   </si>
   <si>
     <t>Edgemaster's Handguards</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=14551) </t>
+    <t>https://database.turtle-wow.org/?item=14551</t>
   </si>
   <si>
     <t>Eidolon Talisman</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=18340) </t>
+    <t>https://database.turtle-wow.org/?item=18340</t>
   </si>
   <si>
     <t>Eight of Beasts</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=19236) </t>
+    <t>https://database.turtle-wow.org/?item=19236</t>
   </si>
   <si>
     <t>Elder Wizard's Mantle</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13013) </t>
+    <t>https://database.turtle-wow.org/?item=13013</t>
   </si>
   <si>
     <t>Elemental Air</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7069) </t>
+    <t>https://database.turtle-wow.org/?item=7069</t>
   </si>
   <si>
     <t>Elemental Earth</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7067) </t>
+    <t>https://database.turtle-wow.org/?item=7067</t>
   </si>
   <si>
     <t>Elemental Fire</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7068) </t>
+    <t>https://database.turtle-wow.org/?item=7068</t>
   </si>
   <si>
     <t>Elemental Water</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7070) </t>
+    <t>https://database.turtle-wow.org/?item=7070</t>
   </si>
   <si>
     <t>43</t>
@@ -298,25 +298,25 @@
     <t>Essence of Air</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7082) </t>
+    <t>https://database.turtle-wow.org/?item=7082</t>
   </si>
   <si>
     <t>Essence of Earth</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7076) </t>
+    <t>https://database.turtle-wow.org/?item=7076</t>
   </si>
   <si>
     <t>Essence of Fire</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7078) </t>
+    <t>https://database.turtle-wow.org/?item=7078</t>
   </si>
   <si>
     <t>Essence of Undeath</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12808) </t>
+    <t>https://database.turtle-wow.org/?item=12808</t>
   </si>
   <si>
     <t>10</t>
@@ -325,67 +325,67 @@
     <t>Essence of Water</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7080) </t>
+    <t>https://database.turtle-wow.org/?item=7080</t>
   </si>
   <si>
     <t>Five of Beasts</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=19233) </t>
+    <t>https://database.turtle-wow.org/?item=19233</t>
   </si>
   <si>
     <t>Foror's Compendium of Dragon Slaying</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=18401) </t>
+    <t>https://database.turtle-wow.org/?item=18401</t>
   </si>
   <si>
     <t>Four of Beasts</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=19232) </t>
+    <t>https://database.turtle-wow.org/?item=19232</t>
   </si>
   <si>
     <t>Frenzied Striker</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13056) </t>
+    <t>https://database.turtle-wow.org/?item=13056</t>
   </si>
   <si>
     <t>Globe of Water</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7079) </t>
+    <t>https://database.turtle-wow.org/?item=7079</t>
   </si>
   <si>
     <t>Golden Pearl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13926) </t>
+    <t>https://database.turtle-wow.org/?item=13926</t>
   </si>
   <si>
     <t>Golden Rod</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=11128) </t>
+    <t>https://database.turtle-wow.org/?item=11128</t>
   </si>
   <si>
     <t>Grimoire of Shadow Ward IV</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=22891) </t>
+    <t>https://database.turtle-wow.org/?item=22891</t>
   </si>
   <si>
     <t>Gromsblood</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=8846) </t>
+    <t>https://database.turtle-wow.org/?item=8846</t>
   </si>
   <si>
     <t>Gut Ripper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=2164) </t>
+    <t>https://database.turtle-wow.org/?item=2164</t>
   </si>
   <si>
     <t>6</t>
@@ -394,7 +394,7 @@
     <t>Heart of Fire</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=7077) </t>
+    <t>https://database.turtle-wow.org/?item=7077</t>
   </si>
   <si>
     <t>29</t>
@@ -403,277 +403,277 @@
     <t>Heart of the Wild</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=10286) </t>
+    <t>https://database.turtle-wow.org/?item=10286</t>
   </si>
   <si>
     <t>Huge Emerald</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12364) </t>
+    <t>https://database.turtle-wow.org/?item=12364</t>
   </si>
   <si>
     <t>Ironweb Spider Silk</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=14227) </t>
+    <t>https://database.turtle-wow.org/?item=14227</t>
   </si>
   <si>
     <t>Jade</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=1529) </t>
+    <t>https://database.turtle-wow.org/?item=1529</t>
   </si>
   <si>
     <t>Kang the Decapitator</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=2291) </t>
+    <t>https://database.turtle-wow.org/?item=2291</t>
   </si>
   <si>
     <t>Large Opal</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12799) </t>
+    <t>https://database.turtle-wow.org/?item=12799</t>
   </si>
   <si>
     <t>Lightforge Belt</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=16723) </t>
+    <t>https://database.turtle-wow.org/?item=16723</t>
   </si>
   <si>
     <t>Lord Alexander's Battle Axe</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13003) </t>
+    <t>https://database.turtle-wow.org/?item=13003</t>
   </si>
   <si>
     <t>Mageweave Cloth</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=4338) </t>
+    <t>https://database.turtle-wow.org/?item=4338</t>
   </si>
   <si>
     <t>Magician's Mantle</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12998) </t>
+    <t>https://database.turtle-wow.org/?item=12998</t>
   </si>
   <si>
     <t>Magister's Belt</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=16685) </t>
+    <t>https://database.turtle-wow.org/?item=16685</t>
   </si>
   <si>
     <t>Major Mana Potion</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13444) </t>
+    <t>https://database.turtle-wow.org/?item=13444</t>
   </si>
   <si>
     <t>Medallion of Grand Marshal Morris</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13091) </t>
+    <t>https://database.turtle-wow.org/?item=13091</t>
   </si>
   <si>
     <t>Mooncloth</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=14342) </t>
+    <t>https://database.turtle-wow.org/?item=14342</t>
   </si>
   <si>
     <t>Moss Agate</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=1206) </t>
+    <t>https://database.turtle-wow.org/?item=1206</t>
   </si>
   <si>
     <t>Mountain Silversage</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13465) </t>
+    <t>https://database.turtle-wow.org/?item=13465</t>
   </si>
   <si>
     <t>Obsidian Greaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13068) </t>
+    <t>https://database.turtle-wow.org/?item=13068</t>
   </si>
   <si>
     <t>Oily Blackmouth</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=6358) </t>
+    <t>https://database.turtle-wow.org/?item=6358</t>
   </si>
   <si>
     <t>Pads of the Venom Spider</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13103) </t>
+    <t>https://database.turtle-wow.org/?item=13103</t>
   </si>
   <si>
     <t>Pattern: Black Dragonscale Shoulders</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=15770) </t>
+    <t>https://database.turtle-wow.org/?item=15770</t>
   </si>
   <si>
     <t>Pattern: Living Leggings</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=15752) </t>
+    <t>https://database.turtle-wow.org/?item=15752</t>
   </si>
   <si>
     <t>Pattern: Robe of the Archmage</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=14513) </t>
+    <t>https://database.turtle-wow.org/?item=14513</t>
   </si>
   <si>
     <t>Pattern: Robe of the Void</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=14514) </t>
+    <t>https://database.turtle-wow.org/?item=14514</t>
   </si>
   <si>
     <t>Plans: Annihilator</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12835) </t>
+    <t>https://database.turtle-wow.org/?item=12835</t>
   </si>
   <si>
     <t>Plans: Invulnerable Mail</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12728) </t>
+    <t>https://database.turtle-wow.org/?item=12728</t>
   </si>
   <si>
     <t>Plans: Rune-Etched Crown</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=83504) </t>
+    <t>https://database.turtle-wow.org/?item=83504</t>
   </si>
   <si>
     <t>Plans: Rune-Etched Greaves</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=83501) </t>
+    <t>https://database.turtle-wow.org/?item=83501</t>
   </si>
   <si>
     <t>Plans: Rune-Etched Grips</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=83506) </t>
+    <t>https://database.turtle-wow.org/?item=83506</t>
   </si>
   <si>
     <t>Plans: Rune-Etched Mantle</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=83505) </t>
+    <t>https://database.turtle-wow.org/?item=83505</t>
   </si>
   <si>
     <t>Plans: Storm Gauntlets</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12703) </t>
+    <t>https://database.turtle-wow.org/?item=12703</t>
   </si>
   <si>
     <t>Plans: Untempered Runeblade</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=83500) </t>
+    <t>https://database.turtle-wow.org/?item=83500</t>
   </si>
   <si>
     <t>Pristine Black Diamond</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=18335) </t>
+    <t>https://database.turtle-wow.org/?item=18335</t>
   </si>
   <si>
     <t>Quickdraw Quiver</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=8217) </t>
+    <t>https://database.turtle-wow.org/?item=8217</t>
   </si>
   <si>
     <t>Recipe: Greater Frost Protection Potion</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13495) </t>
+    <t>https://database.turtle-wow.org/?item=13495</t>
   </si>
   <si>
     <t>Ribsplitter of Stamina</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12527) </t>
+    <t>https://database.turtle-wow.org/?item=12527</t>
   </si>
   <si>
     <t>Righteous Orb</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12811) </t>
+    <t>https://database.turtle-wow.org/?item=12811</t>
   </si>
   <si>
     <t>Rugged Leather</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=8170) </t>
+    <t>https://database.turtle-wow.org/?item=8170</t>
   </si>
   <si>
     <t>Runecloth</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=14047) </t>
+    <t>https://database.turtle-wow.org/?item=14047</t>
   </si>
   <si>
     <t>Sandals of the Insurgent</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13111) </t>
+    <t>https://database.turtle-wow.org/?item=13111</t>
   </si>
   <si>
     <t>Schematic: Sniper Scope</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=10608) </t>
+    <t>https://database.turtle-wow.org/?item=10608</t>
   </si>
   <si>
     <t>Seven of Warlords</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=19264) </t>
+    <t>https://database.turtle-wow.org/?item=19264</t>
   </si>
   <si>
     <t>Six of Beasts</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=19234) </t>
+    <t>https://database.turtle-wow.org/?item=19234</t>
   </si>
   <si>
     <t>Six of Warlords</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=19263) </t>
+    <t>https://database.turtle-wow.org/?item=19263</t>
   </si>
   <si>
     <t>Small Flame Sac</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=4402) </t>
+    <t>https://database.turtle-wow.org/?item=4402</t>
   </si>
   <si>
     <t>Small Glowing Shard</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=11138) </t>
+    <t>https://database.turtle-wow.org/?item=11138</t>
   </si>
   <si>
     <t>Spaulders of the Unseen</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13116) </t>
+    <t>https://database.turtle-wow.org/?item=13116</t>
   </si>
   <si>
     <t>162</t>
@@ -682,7 +682,7 @@
     <t>Stonescale Oil</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13423) </t>
+    <t>https://database.turtle-wow.org/?item=13423</t>
   </si>
   <si>
     <t>12</t>
@@ -691,103 +691,103 @@
     <t>Stranglekelp</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=3820) </t>
+    <t>https://database.turtle-wow.org/?item=3820</t>
   </si>
   <si>
     <t>Teebu's Blazing Longsword</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=1728) </t>
+    <t>https://database.turtle-wow.org/?item=1728</t>
   </si>
   <si>
     <t>The Judge's Gavel</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=12528) </t>
+    <t>https://database.turtle-wow.org/?item=12528</t>
   </si>
   <si>
     <t>The Ziggler</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=8006) </t>
+    <t>https://database.turtle-wow.org/?item=8006</t>
   </si>
   <si>
     <t>Thick Leather</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=4304) </t>
+    <t>https://database.turtle-wow.org/?item=4304</t>
   </si>
   <si>
     <t>Three of Warlords</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=19260) </t>
+    <t>https://database.turtle-wow.org/?item=19260</t>
   </si>
   <si>
     <t>Tome of Arcane Brilliance</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=18600) </t>
+    <t>https://database.turtle-wow.org/?item=18600</t>
   </si>
   <si>
     <t>Tome of Conjure Food VII</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=22897) </t>
+    <t>https://database.turtle-wow.org/?item=22897</t>
   </si>
   <si>
     <t>Tome of Frost Ward V</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=22890) </t>
+    <t>https://database.turtle-wow.org/?item=22890</t>
   </si>
   <si>
     <t>Traveler's Backpack</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=4500) </t>
+    <t>https://database.turtle-wow.org/?item=4500</t>
   </si>
   <si>
     <t>Truesilver Rod</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=11144) </t>
+    <t>https://database.turtle-wow.org/?item=11144</t>
   </si>
   <si>
     <t>Two of Beasts</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=19230) </t>
+    <t>https://database.turtle-wow.org/?item=19230</t>
   </si>
   <si>
     <t>Two of Warlords</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=19259) </t>
+    <t>https://database.turtle-wow.org/?item=19259</t>
   </si>
   <si>
     <t>Volatile Rum</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=9260) </t>
+    <t>https://database.turtle-wow.org/?item=9260</t>
   </si>
   <si>
     <t>Wildheart Bracers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=16714) </t>
+    <t>https://database.turtle-wow.org/?item=16714</t>
   </si>
   <si>
     <t>Winged Helm</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=13112) </t>
+    <t>https://database.turtle-wow.org/?item=13112</t>
   </si>
   <si>
     <t>Wirt's Third Leg</t>
   </si>
   <si>
-    <t xml:space="preserve">https://database.turtle-wow.org/?item=9359) </t>
+    <t>https://database.turtle-wow.org/?item=9359</t>
   </si>
   <si>
     <t>DDMMYYYY 20-2-2023</t>

--- a/todaysBank.xlsx
+++ b/todaysBank.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="411">
   <si>
     <t>Quantity</t>
   </si>
@@ -49,675 +49,1083 @@
     <t>https://database.turtle-wow.org/?item=7909</t>
   </si>
   <si>
+    <t>Arcane Crystal</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12363</t>
+  </si>
+  <si>
+    <t>Arcanite Bar</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12360</t>
+  </si>
+  <si>
+    <t>Azerothian Diamond</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12800</t>
+  </si>
+  <si>
+    <t>Belt of Valor</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=16736</t>
+  </si>
+  <si>
+    <t>Black Diamond</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=11754</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Black Lotus</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13468</t>
+  </si>
+  <si>
+    <t>Black Pearl</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7971</t>
+  </si>
+  <si>
+    <t>Blindweed</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=8839</t>
+  </si>
+  <si>
+    <t>Gunnhildr</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Blood of the Mountain</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=11382</t>
+  </si>
+  <si>
+    <t>Blue Sapphire</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12361</t>
+  </si>
+  <si>
+    <t>Bone Fragments</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=22526</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Book: Gift of the Wild</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=17682</t>
+  </si>
+  <si>
+    <t>Book: Gift of the Wild II</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=17683</t>
+  </si>
+  <si>
+    <t>Bracers of Valor</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=16735</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Breath of Wind</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7081</t>
+  </si>
+  <si>
+    <t>Brilliant Chromatic Scale</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12607</t>
+  </si>
+  <si>
+    <t>Burning War Axe</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=2299</t>
+  </si>
+  <si>
+    <t>Cassandra's Grace</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13102</t>
+  </si>
+  <si>
+    <t>Celestial Handwraps of Healing</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=14314</t>
+  </si>
+  <si>
+    <t>Codex: Prayer of Fortitude II</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=17414</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Codex: Prayer of Shadow Protection</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=22393</t>
+  </si>
+  <si>
+    <t>Core of Earth</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7075</t>
+  </si>
+  <si>
+    <t>Cortello's Riddle</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=4056</t>
+  </si>
+  <si>
+    <t>Cow King's Hide</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13009</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Crypt Fiend Parts</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=22525</t>
+  </si>
+  <si>
+    <t>Crystal Vial</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=8925</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Dark Iron Bar</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=11371</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>Dark Iron Residue</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=18945</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Dense Sharpening Stone</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12404</t>
+  </si>
+  <si>
+    <t>Destiny</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=647</t>
+  </si>
+  <si>
+    <t>Deviate Fish</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=6522</t>
+  </si>
+  <si>
+    <t>Devout Belt</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=16696</t>
+  </si>
+  <si>
+    <t>Devout Gloves</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=16692</t>
+  </si>
+  <si>
+    <t>Discombobulator Ray</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=4388</t>
+  </si>
+  <si>
+    <t>Dreadmist Belt</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=16702</t>
+  </si>
+  <si>
+    <t>Dreamfoil</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13463</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Earthroot</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=2449</t>
+  </si>
+  <si>
+    <t>Edgemaster's Handguards</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=14551</t>
+  </si>
+  <si>
+    <t>Eidolon Talisman</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=18340</t>
+  </si>
+  <si>
+    <t>Eight of Beasts</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=19236</t>
+  </si>
+  <si>
+    <t>Elder Wizard's Mantle</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13013</t>
+  </si>
+  <si>
+    <t>Elemental Air</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7069</t>
+  </si>
+  <si>
+    <t>Elemental Earth</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7067</t>
+  </si>
+  <si>
+    <t>Elemental Fire</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7068</t>
+  </si>
+  <si>
+    <t>Elemental Water</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7070</t>
+  </si>
+  <si>
+    <t>Elixir of Fortitude</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=3825</t>
+  </si>
+  <si>
+    <t>Elixir of Giant Growth</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=6662</t>
+  </si>
+  <si>
+    <t>Elixir of the Mongoose</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13452</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Essence of Air</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7082</t>
+  </si>
+  <si>
+    <t>Essence of Earth</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7076</t>
+  </si>
+  <si>
+    <t>Essence of Fire</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7078</t>
+  </si>
+  <si>
+    <t>Essence of Undeath</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12808</t>
+  </si>
+  <si>
+    <t>Essence of Water</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7080</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Evil Bat Eye</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=11404</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Ez-Thro Dynamite II</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=18588</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Fadeleaf</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=3818</t>
+  </si>
+  <si>
+    <t>Fire Oil</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=6371</t>
+  </si>
+  <si>
+    <t>Five of Beasts</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=19233</t>
+  </si>
+  <si>
+    <t>Flask of Petrification</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13506</t>
+  </si>
+  <si>
+    <t>Foror's Compendium of Dragon Slaying</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=18401</t>
+  </si>
+  <si>
+    <t>Four of Beasts</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=19232</t>
+  </si>
+  <si>
+    <t>Free Action Potion</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=5634</t>
+  </si>
+  <si>
+    <t>Frenzied Striker</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13056</t>
+  </si>
+  <si>
+    <t>Freshly Baked Pie</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=22175</t>
+  </si>
+  <si>
+    <t>Ghost Mushroom</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=8845</t>
+  </si>
+  <si>
+    <t>Gift of Arthas</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=9088</t>
+  </si>
+  <si>
+    <t>Globe of Water</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7079</t>
+  </si>
+  <si>
+    <t>Golden Pearl</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13926</t>
+  </si>
+  <si>
+    <t>Golden Rod</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=11128</t>
+  </si>
+  <si>
+    <t>Goldthorn</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=3821</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Grave Moss</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=3369</t>
+  </si>
+  <si>
+    <t>Greater Nature Protection Potion</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13458</t>
+  </si>
+  <si>
+    <t>Grimoire of Shadow Ward IV</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=22891</t>
+  </si>
+  <si>
+    <t>Gromsblood</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=8846</t>
+  </si>
+  <si>
+    <t>Guild Tabard</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=5976</t>
+  </si>
+  <si>
+    <t>Gut Ripper</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=2164</t>
+  </si>
+  <si>
+    <t>Hammer of the Northern Wind</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=810</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Heart of Fire</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7077</t>
+  </si>
+  <si>
+    <t>Heart of the Wild</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=10286</t>
+  </si>
+  <si>
+    <t>Heavy Runecloth Bandage</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=14530</t>
+  </si>
+  <si>
+    <t>Huge Emerald</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12364</t>
+  </si>
+  <si>
+    <t>Hydralick Armor</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13067</t>
+  </si>
+  <si>
+    <t>Ichor of Undeath</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7972</t>
+  </si>
+  <si>
+    <t>Ironweb Spider Silk</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=14227</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=1529</t>
+  </si>
+  <si>
+    <t>Kang the Decapitator</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=2291</t>
+  </si>
+  <si>
+    <t>Khadgar's Whisker</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=3358</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Kingsblood</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=3356</t>
+  </si>
+  <si>
+    <t>Large Opal</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12799</t>
+  </si>
+  <si>
+    <t>Lesser Stoneshield Potion</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=4623</t>
+  </si>
+  <si>
+    <t>Libram of Constitution</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=11733</t>
+  </si>
+  <si>
+    <t>Libram of Voracity</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=11737</t>
+  </si>
+  <si>
+    <t>Lightforge Belt</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=16723</t>
+  </si>
+  <si>
+    <t>Limited Invulnerability Potion</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=3387</t>
+  </si>
+  <si>
+    <t>Living Essence</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12803</t>
+  </si>
+  <si>
+    <t>Lord Alexander's Battle Axe</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13003</t>
+  </si>
+  <si>
+    <t>Mageweave Cloth</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=4338</t>
+  </si>
+  <si>
+    <t>Magic Mushroom</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=51720</t>
+  </si>
+  <si>
+    <t>Magic Resistance Potion</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=9036</t>
+  </si>
+  <si>
+    <t>Magician's Mantle</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12998</t>
+  </si>
+  <si>
+    <t>Magister's Belt</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=16685</t>
+  </si>
+  <si>
+    <t>Major Healing Potion</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13446</t>
+  </si>
+  <si>
+    <t>Major Mana Potion</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13444</t>
+  </si>
+  <si>
+    <t>Medallion of Grand Marshal Morris</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13091</t>
+  </si>
+  <si>
+    <t>Mighty Rage Potion</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13442</t>
+  </si>
+  <si>
+    <t>Mooncloth</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=14342</t>
+  </si>
+  <si>
+    <t>Moss Agate</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=1206</t>
+  </si>
+  <si>
+    <t>Mountain Silversage</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13465</t>
+  </si>
+  <si>
+    <t>Nightshade Armguards of the Monkey</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=10223</t>
+  </si>
+  <si>
+    <t>Obsidian Greaves</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13068</t>
+  </si>
+  <si>
+    <t>Oily Blackmouth</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=6358</t>
+  </si>
+  <si>
+    <t>Orb of Deception</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=1973</t>
+  </si>
+  <si>
+    <t>Pads of the Venom Spider</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13103</t>
+  </si>
+  <si>
+    <t>Pattern: Black Dragonscale Shoulders</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=15770</t>
+  </si>
+  <si>
+    <t>Pattern: Living Leggings</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=15752</t>
+  </si>
+  <si>
+    <t>Pattern: Mooncloth Shoulders</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=14507</t>
+  </si>
+  <si>
+    <t>Pattern: Robe of the Archmage</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=14513</t>
+  </si>
+  <si>
+    <t>Pattern: Robe of the Void</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=14514</t>
+  </si>
+  <si>
+    <t>Plaguebloom</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13466</t>
+  </si>
+  <si>
+    <t>Plans: Annihilator</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12835</t>
+  </si>
+  <si>
+    <t>Plans: Deadly Bronze Poniard</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=2883</t>
+  </si>
+  <si>
+    <t>Plans: Invulnerable Mail</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12728</t>
+  </si>
+  <si>
+    <t>Plans: Rune-Etched Crown</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=83504</t>
+  </si>
+  <si>
+    <t>Plans: Rune-Etched Greaves</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=83501</t>
+  </si>
+  <si>
+    <t>Plans: Rune-Etched Grips</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=83506</t>
+  </si>
+  <si>
+    <t>Plans: Rune-Etched Mantle</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=83505</t>
+  </si>
+  <si>
+    <t>Plans: Storm Gauntlets</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12703</t>
+  </si>
+  <si>
+    <t>Plans: Untempered Runeblade</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=83500</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Precision Arrow</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=9399</t>
+  </si>
+  <si>
+    <t>Pristine Black Diamond</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=18335</t>
+  </si>
+  <si>
+    <t>Purification Potion</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13462</t>
+  </si>
+  <si>
+    <t>Quickdraw Quiver</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=8217</t>
+  </si>
+  <si>
+    <t>Recipe: Elixir of Giant Growth</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=6663</t>
+  </si>
+  <si>
+    <t>Recipe: Greater Frost Protection Potion</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13495</t>
+  </si>
+  <si>
+    <t>Resplendent Belt of Healing</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=14327</t>
+  </si>
+  <si>
+    <t>Ribsplitter of Stamina</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12527</t>
+  </si>
+  <si>
+    <t>Righteous Orb</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12811</t>
+  </si>
+  <si>
+    <t>Roasted Quail</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=8952</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Rockshard Pellets</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=11630</t>
+  </si>
+  <si>
+    <t>Rugged Leather</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=8170</t>
+  </si>
+  <si>
+    <t>Runecloth</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=14047</t>
+  </si>
+  <si>
+    <t>Runn Tum Tuber</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=18255</t>
+  </si>
+  <si>
+    <t>Sandals of the Insurgent</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13111</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Savage Frond</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=22529</t>
+  </si>
+  <si>
+    <t>Savory Deviate Delight</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=6657</t>
+  </si>
+  <si>
+    <t>Schematic: Sniper Scope</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=10608</t>
+  </si>
+  <si>
+    <t>Seven of Warlords</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=19264</t>
+  </si>
+  <si>
+    <t>Six Demon Bag</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7734</t>
+  </si>
+  <si>
+    <t>Six of Beasts</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=19234</t>
+  </si>
+  <si>
+    <t>Six of Warlords</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=19263</t>
+  </si>
+  <si>
+    <t>Small Flame Sac</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=4402</t>
+  </si>
+  <si>
+    <t>Small Glowing Shard</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=11138</t>
+  </si>
+  <si>
+    <t>Smoked Desert Dumplings</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=20452</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Snickerfang Jowl</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=8391</t>
+  </si>
+  <si>
+    <t>Spaulders of the Unseen</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13116</t>
+  </si>
+  <si>
+    <t>Spicy Beef Burrito</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=51267</t>
+  </si>
+  <si>
+    <t>Star Ruby</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=7910</t>
+  </si>
+  <si>
+    <t>Stonegrip Gauntlets</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13072</t>
+  </si>
+  <si>
+    <t>Stonescale Eel</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13422</t>
+  </si>
+  <si>
+    <t>Stonescale Oil</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=13423</t>
+  </si>
+  <si>
+    <t>Stranglekelp</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=3820</t>
+  </si>
+  <si>
+    <t>Sungrass</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=8838</t>
+  </si>
+  <si>
+    <t>Teebu's Blazing Longsword</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=1728</t>
+  </si>
+  <si>
+    <t>The Judge's Gavel</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12528</t>
+  </si>
+  <si>
+    <t>The Ziggler</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=8006</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
-    <t>Arcane Crystal</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12363</t>
-  </si>
-  <si>
-    <t>Arcanite Bar</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12360</t>
-  </si>
-  <si>
-    <t>Azerothian Diamond</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12800</t>
-  </si>
-  <si>
-    <t>Belt of Valor</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=16736</t>
-  </si>
-  <si>
-    <t>Black Diamond</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=11754</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Black Lotus</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13468</t>
-  </si>
-  <si>
-    <t>Black Pearl</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7971</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Blood of the Mountain</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=11382</t>
-  </si>
-  <si>
-    <t>Blue Sapphire</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12361</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Book: Gift of the Wild</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=17682</t>
-  </si>
-  <si>
-    <t>Book: Gift of the Wild II</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=17683</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Breath of Wind</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7081</t>
-  </si>
-  <si>
-    <t>Brilliant Chromatic Scale</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12607</t>
-  </si>
-  <si>
-    <t>Burning War Axe</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=2299</t>
-  </si>
-  <si>
-    <t>Cassandra's Grace</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13102</t>
-  </si>
-  <si>
-    <t>Codex: Prayer of Fortitude II</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=17414</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Codex: Prayer of Shadow Protection</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=22393</t>
-  </si>
-  <si>
-    <t>Core of Earth</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7075</t>
-  </si>
-  <si>
-    <t>Cow King's Hide</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13009</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Dark Iron Bar</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=11371</t>
-  </si>
-  <si>
-    <t>481</t>
-  </si>
-  <si>
-    <t>Dark Iron Residue</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=18945</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Dense Sharpening Stone</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12404</t>
-  </si>
-  <si>
-    <t>Destiny</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=647</t>
-  </si>
-  <si>
-    <t>Devout Belt</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=16696</t>
-  </si>
-  <si>
-    <t>Devout Gloves</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=16692</t>
-  </si>
-  <si>
-    <t>Discombobulator Ray</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=4388</t>
-  </si>
-  <si>
-    <t>Dreadmist Belt</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=16702</t>
-  </si>
-  <si>
-    <t>Dreamfoil</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13463</t>
-  </si>
-  <si>
-    <t>Edgemaster's Handguards</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=14551</t>
-  </si>
-  <si>
-    <t>Eidolon Talisman</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=18340</t>
-  </si>
-  <si>
-    <t>Eight of Beasts</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=19236</t>
-  </si>
-  <si>
-    <t>Elder Wizard's Mantle</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13013</t>
-  </si>
-  <si>
-    <t>Elemental Air</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7069</t>
-  </si>
-  <si>
-    <t>Elemental Earth</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7067</t>
-  </si>
-  <si>
-    <t>Elemental Fire</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7068</t>
-  </si>
-  <si>
-    <t>Elemental Water</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7070</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Essence of Air</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7082</t>
-  </si>
-  <si>
-    <t>Essence of Earth</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7076</t>
-  </si>
-  <si>
-    <t>Essence of Fire</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7078</t>
-  </si>
-  <si>
-    <t>Essence of Undeath</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12808</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Essence of Water</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7080</t>
-  </si>
-  <si>
-    <t>Five of Beasts</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=19233</t>
-  </si>
-  <si>
-    <t>Foror's Compendium of Dragon Slaying</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=18401</t>
-  </si>
-  <si>
-    <t>Four of Beasts</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=19232</t>
-  </si>
-  <si>
-    <t>Frenzied Striker</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13056</t>
-  </si>
-  <si>
-    <t>Globe of Water</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7079</t>
-  </si>
-  <si>
-    <t>Golden Pearl</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13926</t>
-  </si>
-  <si>
-    <t>Golden Rod</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=11128</t>
-  </si>
-  <si>
-    <t>Grimoire of Shadow Ward IV</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=22891</t>
-  </si>
-  <si>
-    <t>Gromsblood</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=8846</t>
-  </si>
-  <si>
-    <t>Gut Ripper</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=2164</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Heart of Fire</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=7077</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Heart of the Wild</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=10286</t>
-  </si>
-  <si>
-    <t>Huge Emerald</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12364</t>
-  </si>
-  <si>
-    <t>Ironweb Spider Silk</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=14227</t>
-  </si>
-  <si>
-    <t>Jade</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=1529</t>
-  </si>
-  <si>
-    <t>Kang the Decapitator</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=2291</t>
-  </si>
-  <si>
-    <t>Large Opal</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12799</t>
-  </si>
-  <si>
-    <t>Lightforge Belt</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=16723</t>
-  </si>
-  <si>
-    <t>Lord Alexander's Battle Axe</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13003</t>
-  </si>
-  <si>
-    <t>Mageweave Cloth</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=4338</t>
-  </si>
-  <si>
-    <t>Magician's Mantle</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12998</t>
-  </si>
-  <si>
-    <t>Magister's Belt</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=16685</t>
-  </si>
-  <si>
-    <t>Major Mana Potion</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13444</t>
-  </si>
-  <si>
-    <t>Medallion of Grand Marshal Morris</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13091</t>
-  </si>
-  <si>
-    <t>Mooncloth</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=14342</t>
-  </si>
-  <si>
-    <t>Moss Agate</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=1206</t>
-  </si>
-  <si>
-    <t>Mountain Silversage</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13465</t>
-  </si>
-  <si>
-    <t>Obsidian Greaves</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13068</t>
-  </si>
-  <si>
-    <t>Oily Blackmouth</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=6358</t>
-  </si>
-  <si>
-    <t>Pads of the Venom Spider</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13103</t>
-  </si>
-  <si>
-    <t>Pattern: Black Dragonscale Shoulders</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=15770</t>
-  </si>
-  <si>
-    <t>Pattern: Living Leggings</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=15752</t>
-  </si>
-  <si>
-    <t>Pattern: Robe of the Archmage</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=14513</t>
-  </si>
-  <si>
-    <t>Pattern: Robe of the Void</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=14514</t>
-  </si>
-  <si>
-    <t>Plans: Annihilator</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12835</t>
-  </si>
-  <si>
-    <t>Plans: Invulnerable Mail</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12728</t>
-  </si>
-  <si>
-    <t>Plans: Rune-Etched Crown</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=83504</t>
-  </si>
-  <si>
-    <t>Plans: Rune-Etched Greaves</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=83501</t>
-  </si>
-  <si>
-    <t>Plans: Rune-Etched Grips</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=83506</t>
-  </si>
-  <si>
-    <t>Plans: Rune-Etched Mantle</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=83505</t>
-  </si>
-  <si>
-    <t>Plans: Storm Gauntlets</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12703</t>
-  </si>
-  <si>
-    <t>Plans: Untempered Runeblade</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=83500</t>
-  </si>
-  <si>
-    <t>Pristine Black Diamond</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=18335</t>
-  </si>
-  <si>
-    <t>Quickdraw Quiver</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=8217</t>
-  </si>
-  <si>
-    <t>Recipe: Greater Frost Protection Potion</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13495</t>
-  </si>
-  <si>
-    <t>Ribsplitter of Stamina</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12527</t>
-  </si>
-  <si>
-    <t>Righteous Orb</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12811</t>
-  </si>
-  <si>
-    <t>Rugged Leather</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=8170</t>
-  </si>
-  <si>
-    <t>Runecloth</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=14047</t>
-  </si>
-  <si>
-    <t>Sandals of the Insurgent</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13111</t>
-  </si>
-  <si>
-    <t>Schematic: Sniper Scope</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=10608</t>
-  </si>
-  <si>
-    <t>Seven of Warlords</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=19264</t>
-  </si>
-  <si>
-    <t>Six of Beasts</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=19234</t>
-  </si>
-  <si>
-    <t>Six of Warlords</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=19263</t>
-  </si>
-  <si>
-    <t>Small Flame Sac</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=4402</t>
-  </si>
-  <si>
-    <t>Small Glowing Shard</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=11138</t>
-  </si>
-  <si>
-    <t>Spaulders of the Unseen</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13116</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>Stonescale Oil</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=13423</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Stranglekelp</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=3820</t>
-  </si>
-  <si>
-    <t>Teebu's Blazing Longsword</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=1728</t>
-  </si>
-  <si>
-    <t>The Judge's Gavel</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=12528</t>
-  </si>
-  <si>
-    <t>The Ziggler</t>
-  </si>
-  <si>
-    <t>https://database.turtle-wow.org/?item=8006</t>
-  </si>
-  <si>
     <t>Thick Leather</t>
   </si>
   <si>
     <t>https://database.turtle-wow.org/?item=4304</t>
   </si>
   <si>
+    <t>Thorium Bar</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12359</t>
+  </si>
+  <si>
+    <t>Thorium Lockbox</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=5759</t>
+  </si>
+  <si>
     <t>Three of Warlords</t>
   </si>
   <si>
@@ -766,22 +1174,70 @@
     <t>https://database.turtle-wow.org/?item=19259</t>
   </si>
   <si>
+    <t>Unadorned Seal of Ascension</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12219</t>
+  </si>
+  <si>
     <t>Volatile Rum</t>
   </si>
   <si>
     <t>https://database.turtle-wow.org/?item=9260</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Vulture Gizzard</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=8396</t>
+  </si>
+  <si>
+    <t>Wall of the Dead</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=1979</t>
+  </si>
+  <si>
     <t>Wildheart Bracers</t>
   </si>
   <si>
     <t>https://database.turtle-wow.org/?item=16714</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Wildvine</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=8153</t>
+  </si>
+  <si>
     <t>Winged Helm</t>
   </si>
   <si>
     <t>https://database.turtle-wow.org/?item=13112</t>
+  </si>
+  <si>
+    <t>Winterfall E'ko</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12431</t>
+  </si>
+  <si>
+    <t>Winterfall Firewater</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=12820</t>
+  </si>
+  <si>
+    <t>Wintersbite</t>
+  </si>
+  <si>
+    <t>https://database.turtle-wow.org/?item=3819</t>
   </si>
   <si>
     <t>Wirt's Third Leg</t>
@@ -1135,7 +1591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1184,28 +1640,28 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1216,10 +1672,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1230,10 +1686,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1241,13 +1697,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1255,13 +1711,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1272,32 +1728,32 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -1310,14 +1766,14 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1325,27 +1781,27 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1353,13 +1809,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -1370,18 +1826,18 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
@@ -1395,7 +1851,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -1409,13 +1865,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1423,13 +1879,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1440,24 +1896,24 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1465,13 +1921,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1479,13 +1935,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1496,13 +1952,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1510,10 +1966,10 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1521,49 +1977,49 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>73</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>177</v>
       </c>
       <c r="B31" t="s">
         <v>74</v>
@@ -1577,13 +2033,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1594,10 +2050,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1605,16 +2061,16 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1622,10 +2078,10 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1633,13 +2089,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1647,41 +2103,41 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38">
-        <v>11</v>
+      <c r="A38" t="s">
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>55</v>
+      <c r="A39">
+        <v>277</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1689,41 +2145,41 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41">
-        <v>29</v>
+      <c r="A41" t="s">
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42">
-        <v>23</v>
+      <c r="A42" t="s">
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1731,13 +2187,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1745,7 +2201,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>102</v>
@@ -1759,7 +2215,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>104</v>
@@ -1772,8 +2228,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>4</v>
+      <c r="A46">
+        <v>26</v>
       </c>
       <c r="B46" t="s">
         <v>106</v>
@@ -1786,8 +2242,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>48</v>
+      <c r="A47">
+        <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>108</v>
@@ -1801,7 +2257,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
         <v>110</v>
@@ -1815,7 +2271,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
@@ -1824,12 +2280,12 @@
         <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50">
-        <v>24</v>
+      <c r="A50" t="s">
+        <v>36</v>
       </c>
       <c r="B50" t="s">
         <v>114</v>
@@ -1838,7 +2294,7 @@
         <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1852,46 +2308,46 @@
         <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>32</v>
+      <c r="A53">
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>32</v>
+      <c r="A54">
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1899,7 +2355,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
         <v>125</v>
@@ -1913,13 +2369,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
         <v>127</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1927,7 +2383,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
         <v>130</v>
@@ -1936,49 +2392,49 @@
         <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58">
-        <v>3</v>
+      <c r="A58" t="s">
+        <v>132</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1986,10 +2442,10 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -2000,13 +2456,13 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2014,24 +2470,24 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64">
-        <v>40</v>
+      <c r="A64" t="s">
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -2039,16 +2495,16 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2056,10 +2512,10 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -2067,69 +2523,69 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>8</v>
+      <c r="A71">
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -2137,13 +2593,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -2151,44 +2607,44 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2196,24 +2652,24 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>4</v>
+      <c r="A77">
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -2224,24 +2680,24 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>4</v>
+      <c r="A79">
+        <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -2252,38 +2708,38 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>4</v>
+      <c r="A82">
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -2291,27 +2747,27 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -2322,13 +2778,13 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2336,38 +2792,38 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>55</v>
+      <c r="A87">
+        <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88">
-        <v>2</v>
+      <c r="A88" t="s">
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2378,69 +2834,69 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>4</v>
+      <c r="A90">
+        <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91">
-        <v>14</v>
+      <c r="A91" t="s">
+        <v>202</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92">
-        <v>60</v>
+      <c r="A92" t="s">
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93">
-        <v>72</v>
+      <c r="A93" t="s">
+        <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2448,13 +2904,13 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2462,24 +2918,24 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2487,55 +2943,55 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="B98" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>4</v>
+      <c r="A100">
+        <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2543,41 +2999,41 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="B102" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2588,10 +3044,10 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2599,27 +3055,27 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -2627,13 +3083,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -2644,24 +3100,24 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109">
-        <v>3</v>
+      <c r="A109" t="s">
+        <v>181</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2669,27 +3125,27 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>4</v>
+      <c r="A111">
+        <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -2700,24 +3156,24 @@
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
@@ -2725,13 +3181,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2742,24 +3198,24 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -2767,13 +3223,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -2784,32 +3240,1026 @@
         <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119">
-        <v>2</v>
+      <c r="A119" t="s">
+        <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>258</v>
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>265</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>267</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>269</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>271</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>273</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" t="s">
+        <v>277</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>279</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>281</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>283</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" t="s">
+        <v>286</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>70</v>
+      </c>
+      <c r="B133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>29</v>
+      </c>
+      <c r="B134" t="s">
+        <v>290</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>292</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>294</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>296</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>298</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>300</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>302</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" t="s">
+        <v>304</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>306</v>
+      </c>
+      <c r="B142" t="s">
+        <v>307</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>70</v>
+      </c>
+      <c r="B143" t="s">
+        <v>309</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>135</v>
+      </c>
+      <c r="B144" t="s">
+        <v>311</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" t="s">
+        <v>313</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>315</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>317</v>
+      </c>
+      <c r="B147" t="s">
+        <v>318</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>320</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>322</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>36</v>
+      </c>
+      <c r="B150" t="s">
+        <v>324</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>326</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>328</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>36</v>
+      </c>
+      <c r="B153" t="s">
+        <v>330</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>93</v>
+      </c>
+      <c r="B154" t="s">
+        <v>332</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>334</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" t="s">
+        <v>336</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>338</v>
+      </c>
+      <c r="B157" t="s">
+        <v>339</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>36</v>
+      </c>
+      <c r="B159" t="s">
+        <v>343</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>129</v>
+      </c>
+      <c r="B160" t="s">
+        <v>345</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>347</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>120</v>
+      </c>
+      <c r="B162" t="s">
+        <v>349</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>182</v>
+      </c>
+      <c r="B163" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>52</v>
+      </c>
+      <c r="B164" t="s">
+        <v>353</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>338</v>
+      </c>
+      <c r="B165" t="s">
+        <v>355</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>359</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>361</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>363</v>
+      </c>
+      <c r="B169" t="s">
+        <v>364</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>129</v>
+      </c>
+      <c r="B170" t="s">
+        <v>366</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>368</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>370</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
+        <v>372</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>374</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>376</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s">
+        <v>378</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>380</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>382</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>384</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>386</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>93</v>
+      </c>
+      <c r="B181" t="s">
+        <v>388</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>390</v>
+      </c>
+      <c r="B182" t="s">
+        <v>391</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s">
+        <v>393</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>36</v>
+      </c>
+      <c r="B184" t="s">
+        <v>395</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>397</v>
+      </c>
+      <c r="B185" t="s">
+        <v>398</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" t="s">
+        <v>400</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>338</v>
+      </c>
+      <c r="B187" t="s">
+        <v>402</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>12</v>
+      </c>
+      <c r="B188" t="s">
+        <v>404</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>93</v>
+      </c>
+      <c r="B189" t="s">
+        <v>406</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190" t="s">
+        <v>408</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -2932,6 +4382,77 @@
     <hyperlink ref="C117" r:id="rId116"/>
     <hyperlink ref="C118" r:id="rId117"/>
     <hyperlink ref="C119" r:id="rId118"/>
+    <hyperlink ref="C120" r:id="rId119"/>
+    <hyperlink ref="C121" r:id="rId120"/>
+    <hyperlink ref="C122" r:id="rId121"/>
+    <hyperlink ref="C123" r:id="rId122"/>
+    <hyperlink ref="C124" r:id="rId123"/>
+    <hyperlink ref="C125" r:id="rId124"/>
+    <hyperlink ref="C126" r:id="rId125"/>
+    <hyperlink ref="C127" r:id="rId126"/>
+    <hyperlink ref="C128" r:id="rId127"/>
+    <hyperlink ref="C129" r:id="rId128"/>
+    <hyperlink ref="C130" r:id="rId129"/>
+    <hyperlink ref="C131" r:id="rId130"/>
+    <hyperlink ref="C132" r:id="rId131"/>
+    <hyperlink ref="C133" r:id="rId132"/>
+    <hyperlink ref="C134" r:id="rId133"/>
+    <hyperlink ref="C135" r:id="rId134"/>
+    <hyperlink ref="C136" r:id="rId135"/>
+    <hyperlink ref="C137" r:id="rId136"/>
+    <hyperlink ref="C138" r:id="rId137"/>
+    <hyperlink ref="C139" r:id="rId138"/>
+    <hyperlink ref="C140" r:id="rId139"/>
+    <hyperlink ref="C141" r:id="rId140"/>
+    <hyperlink ref="C142" r:id="rId141"/>
+    <hyperlink ref="C143" r:id="rId142"/>
+    <hyperlink ref="C144" r:id="rId143"/>
+    <hyperlink ref="C145" r:id="rId144"/>
+    <hyperlink ref="C146" r:id="rId145"/>
+    <hyperlink ref="C147" r:id="rId146"/>
+    <hyperlink ref="C148" r:id="rId147"/>
+    <hyperlink ref="C149" r:id="rId148"/>
+    <hyperlink ref="C150" r:id="rId149"/>
+    <hyperlink ref="C151" r:id="rId150"/>
+    <hyperlink ref="C152" r:id="rId151"/>
+    <hyperlink ref="C153" r:id="rId152"/>
+    <hyperlink ref="C154" r:id="rId153"/>
+    <hyperlink ref="C155" r:id="rId154"/>
+    <hyperlink ref="C156" r:id="rId155"/>
+    <hyperlink ref="C157" r:id="rId156"/>
+    <hyperlink ref="C158" r:id="rId157"/>
+    <hyperlink ref="C159" r:id="rId158"/>
+    <hyperlink ref="C160" r:id="rId159"/>
+    <hyperlink ref="C161" r:id="rId160"/>
+    <hyperlink ref="C162" r:id="rId161"/>
+    <hyperlink ref="C163" r:id="rId162"/>
+    <hyperlink ref="C164" r:id="rId163"/>
+    <hyperlink ref="C165" r:id="rId164"/>
+    <hyperlink ref="C166" r:id="rId165"/>
+    <hyperlink ref="C167" r:id="rId166"/>
+    <hyperlink ref="C168" r:id="rId167"/>
+    <hyperlink ref="C169" r:id="rId168"/>
+    <hyperlink ref="C170" r:id="rId169"/>
+    <hyperlink ref="C171" r:id="rId170"/>
+    <hyperlink ref="C172" r:id="rId171"/>
+    <hyperlink ref="C173" r:id="rId172"/>
+    <hyperlink ref="C174" r:id="rId173"/>
+    <hyperlink ref="C175" r:id="rId174"/>
+    <hyperlink ref="C176" r:id="rId175"/>
+    <hyperlink ref="C177" r:id="rId176"/>
+    <hyperlink ref="C178" r:id="rId177"/>
+    <hyperlink ref="C179" r:id="rId178"/>
+    <hyperlink ref="C180" r:id="rId179"/>
+    <hyperlink ref="C181" r:id="rId180"/>
+    <hyperlink ref="C182" r:id="rId181"/>
+    <hyperlink ref="C183" r:id="rId182"/>
+    <hyperlink ref="C184" r:id="rId183"/>
+    <hyperlink ref="C185" r:id="rId184"/>
+    <hyperlink ref="C186" r:id="rId185"/>
+    <hyperlink ref="C187" r:id="rId186"/>
+    <hyperlink ref="C188" r:id="rId187"/>
+    <hyperlink ref="C189" r:id="rId188"/>
+    <hyperlink ref="C190" r:id="rId189"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
